--- a/Code/Results/Cases/Case_0_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000954352687939</v>
+        <v>1.03619328014384</v>
       </c>
       <c r="D2">
-        <v>1.009321184162794</v>
+        <v>1.038837636877475</v>
       </c>
       <c r="E2">
-        <v>1.013542594949537</v>
+        <v>1.043969571154188</v>
       </c>
       <c r="F2">
-        <v>1.015963812404377</v>
+        <v>1.052083561064594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04777235348058</v>
+        <v>1.034311452478081</v>
       </c>
       <c r="J2">
-        <v>1.023106556650641</v>
+        <v>1.041302932441949</v>
       </c>
       <c r="K2">
-        <v>1.020652169711222</v>
+        <v>1.041624532558426</v>
       </c>
       <c r="L2">
-        <v>1.024816429727654</v>
+        <v>1.046741939805645</v>
       </c>
       <c r="M2">
-        <v>1.027205137241535</v>
+        <v>1.054833274861561</v>
       </c>
       <c r="N2">
-        <v>1.024559485313048</v>
+        <v>1.042781702045133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006267600078617</v>
+        <v>1.037284424865084</v>
       </c>
       <c r="D3">
-        <v>1.013987561665026</v>
+        <v>1.039843006486156</v>
       </c>
       <c r="E3">
-        <v>1.018156805464513</v>
+        <v>1.044974626868057</v>
       </c>
       <c r="F3">
-        <v>1.021276733147372</v>
+        <v>1.053258413668583</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049195401061665</v>
+        <v>1.034493273632572</v>
       </c>
       <c r="J3">
-        <v>1.026588850109256</v>
+        <v>1.042037225991341</v>
       </c>
       <c r="K3">
-        <v>1.024444543421571</v>
+        <v>1.042439482123166</v>
       </c>
       <c r="L3">
-        <v>1.028562520229401</v>
+        <v>1.047557631996732</v>
       </c>
       <c r="M3">
-        <v>1.03164442402451</v>
+        <v>1.055819972693901</v>
       </c>
       <c r="N3">
-        <v>1.028046724027798</v>
+        <v>1.043517038375589</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009622469787651</v>
+        <v>1.037989996381771</v>
       </c>
       <c r="D4">
-        <v>1.016938646844347</v>
+        <v>1.0404933559343</v>
       </c>
       <c r="E4">
-        <v>1.021076783757087</v>
+        <v>1.045624985271439</v>
       </c>
       <c r="F4">
-        <v>1.024640059876751</v>
+        <v>1.054018923919444</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050075974120409</v>
+        <v>1.03460859094797</v>
       </c>
       <c r="J4">
-        <v>1.028783194024847</v>
+        <v>1.042511341561719</v>
       </c>
       <c r="K4">
-        <v>1.026836846985013</v>
+        <v>1.042966010253636</v>
       </c>
       <c r="L4">
-        <v>1.030927315356487</v>
+        <v>1.04808485059762</v>
       </c>
       <c r="M4">
-        <v>1.034449925434446</v>
+        <v>1.05645815869345</v>
       </c>
       <c r="N4">
-        <v>1.030244184163445</v>
+        <v>1.043991827244459</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01101376162734</v>
+        <v>1.038286506344037</v>
       </c>
       <c r="D5">
-        <v>1.018163556124075</v>
+        <v>1.040766717015726</v>
       </c>
       <c r="E5">
-        <v>1.022289234110745</v>
+        <v>1.045898400910227</v>
       </c>
       <c r="F5">
-        <v>1.026036908597337</v>
+        <v>1.054338715205929</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050436776562192</v>
+        <v>1.034656511468768</v>
       </c>
       <c r="J5">
-        <v>1.029692097068667</v>
+        <v>1.042710415314785</v>
       </c>
       <c r="K5">
-        <v>1.027828364925434</v>
+        <v>1.043187171570005</v>
       </c>
       <c r="L5">
-        <v>1.031907841035992</v>
+        <v>1.048306352499645</v>
       </c>
       <c r="M5">
-        <v>1.035613942680962</v>
+        <v>1.056726386937613</v>
       </c>
       <c r="N5">
-        <v>1.031154377953839</v>
+        <v>1.044191183705088</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011246268589517</v>
+        <v>1.038336285106453</v>
       </c>
       <c r="D6">
-        <v>1.018368319496978</v>
+        <v>1.040812612860083</v>
       </c>
       <c r="E6">
-        <v>1.022491941404004</v>
+        <v>1.045944308894222</v>
       </c>
       <c r="F6">
-        <v>1.026270463918945</v>
+        <v>1.054392413851098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050496812957281</v>
+        <v>1.034664524752554</v>
       </c>
       <c r="J6">
-        <v>1.029843922670297</v>
+        <v>1.042743826343109</v>
       </c>
       <c r="K6">
-        <v>1.02799402729792</v>
+        <v>1.043224294324352</v>
       </c>
       <c r="L6">
-        <v>1.032071690990608</v>
+        <v>1.048343535391664</v>
       </c>
       <c r="M6">
-        <v>1.035808499879141</v>
+        <v>1.05677141982879</v>
       </c>
       <c r="N6">
-        <v>1.031306419165237</v>
+        <v>1.044224642180905</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009641134290118</v>
+        <v>1.037993958802805</v>
       </c>
       <c r="D7">
-        <v>1.016955075116516</v>
+        <v>1.040497008778395</v>
       </c>
       <c r="E7">
-        <v>1.02109304314251</v>
+        <v>1.04562863864492</v>
       </c>
       <c r="F7">
-        <v>1.024658790859057</v>
+        <v>1.054023196699742</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050080831769238</v>
+        <v>1.034609233460756</v>
       </c>
       <c r="J7">
-        <v>1.028795391615015</v>
+        <v>1.042514002555302</v>
       </c>
       <c r="K7">
-        <v>1.026850150821046</v>
+        <v>1.042968966172794</v>
       </c>
       <c r="L7">
-        <v>1.030940470079776</v>
+        <v>1.048087810869941</v>
       </c>
       <c r="M7">
-        <v>1.034465538858828</v>
+        <v>1.056461743027995</v>
       </c>
       <c r="N7">
-        <v>1.030256399075589</v>
+        <v>1.043994492016958</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002767712925991</v>
+        <v>1.036562135791543</v>
       </c>
       <c r="D8">
-        <v>1.01091276415323</v>
+        <v>1.039177446056582</v>
       </c>
       <c r="E8">
-        <v>1.015115986637011</v>
+        <v>1.044309230355009</v>
       </c>
       <c r="F8">
-        <v>1.017775221207542</v>
+        <v>1.052480545742606</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048261760201026</v>
+        <v>1.034373382688175</v>
       </c>
       <c r="J8">
-        <v>1.024295933217701</v>
+        <v>1.041551301952056</v>
       </c>
       <c r="K8">
-        <v>1.021946916579118</v>
+        <v>1.04190011403132</v>
       </c>
       <c r="L8">
-        <v>1.026095022372547</v>
+        <v>1.047017728813251</v>
       </c>
       <c r="M8">
-        <v>1.028719680802345</v>
+        <v>1.055166790835235</v>
       </c>
       <c r="N8">
-        <v>1.025750550931256</v>
+        <v>1.043030424268432</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9899797323490247</v>
+        <v>1.034035432141881</v>
       </c>
       <c r="D9">
-        <v>0.9997108438028488</v>
+        <v>1.036850731583285</v>
       </c>
       <c r="E9">
-        <v>1.004050105970556</v>
+        <v>1.041984411242319</v>
       </c>
       <c r="F9">
-        <v>1.005039379954783</v>
+        <v>1.049764489230544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044736477527094</v>
+        <v>1.03393992791603</v>
       </c>
       <c r="J9">
-        <v>1.015891362687464</v>
+        <v>1.039847071484809</v>
       </c>
       <c r="K9">
-        <v>1.012808614107231</v>
+        <v>1.04001053666039</v>
       </c>
       <c r="L9">
-        <v>1.017077813027212</v>
+        <v>1.045127589892894</v>
       </c>
       <c r="M9">
-        <v>1.018051222443977</v>
+        <v>1.052882809711441</v>
       </c>
       <c r="N9">
-        <v>1.017334044946848</v>
+        <v>1.041323773598444</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9809402791137801</v>
+        <v>1.032348460023266</v>
       </c>
       <c r="D10">
-        <v>0.9918232041388776</v>
+        <v>1.035298582777509</v>
       </c>
       <c r="E10">
-        <v>0.9962684933670158</v>
+        <v>1.040434616296027</v>
       </c>
       <c r="F10">
-        <v>0.996087399603288</v>
+        <v>1.047955291210362</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042153462725036</v>
+        <v>1.033638968974135</v>
       </c>
       <c r="J10">
-        <v>1.009931054919408</v>
+        <v>1.038705642304311</v>
       </c>
       <c r="K10">
-        <v>1.006341679433677</v>
+        <v>1.038746689306265</v>
       </c>
       <c r="L10">
-        <v>1.010705449755869</v>
+        <v>1.043864444974722</v>
       </c>
       <c r="M10">
-        <v>1.010527658433711</v>
+        <v>1.051358711787146</v>
       </c>
       <c r="N10">
-        <v>1.011365272858105</v>
+        <v>1.040180723457586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9768893423964554</v>
+        <v>1.031617376508227</v>
       </c>
       <c r="D11">
-        <v>0.9882966203530164</v>
+        <v>1.034626242448789</v>
       </c>
       <c r="E11">
-        <v>0.9927917549627151</v>
+        <v>1.039763553645304</v>
       </c>
       <c r="F11">
-        <v>0.9920882849640593</v>
+        <v>1.047172236920136</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040975340669064</v>
+        <v>1.033505809475482</v>
       </c>
       <c r="J11">
-        <v>1.007256190263494</v>
+        <v>1.03821013586956</v>
       </c>
       <c r="K11">
-        <v>1.003442672489099</v>
+        <v>1.038198446234347</v>
       </c>
       <c r="L11">
-        <v>1.007850900640629</v>
+        <v>1.043316760926306</v>
       </c>
       <c r="M11">
-        <v>1.007160963067424</v>
+        <v>1.05069841133536</v>
       </c>
       <c r="N11">
-        <v>1.008686609587568</v>
+        <v>1.039684513346862</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.975362697687669</v>
+        <v>1.031345726183878</v>
       </c>
       <c r="D12">
-        <v>0.9869688963229334</v>
+        <v>1.034376467312337</v>
       </c>
       <c r="E12">
-        <v>0.9914831652148148</v>
+        <v>1.039514291916965</v>
       </c>
       <c r="F12">
-        <v>0.9905831234740601</v>
+        <v>1.046881425941313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040528353864865</v>
+        <v>1.033455921211334</v>
       </c>
       <c r="J12">
-        <v>1.006247632756262</v>
+        <v>1.038025892962242</v>
       </c>
       <c r="K12">
-        <v>1.002350083729215</v>
+        <v>1.037994655327529</v>
       </c>
       <c r="L12">
-        <v>1.006775373791394</v>
+        <v>1.043113215918548</v>
       </c>
       <c r="M12">
-        <v>1.005892987426838</v>
+        <v>1.050453092155521</v>
       </c>
       <c r="N12">
-        <v>1.007676619812993</v>
+        <v>1.039500008793483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9756911850625546</v>
+        <v>1.03140400034436</v>
       </c>
       <c r="D13">
-        <v>0.9872545213896222</v>
+        <v>1.034430046654759</v>
       </c>
       <c r="E13">
-        <v>0.9917646573952729</v>
+        <v>1.039567759374928</v>
       </c>
       <c r="F13">
-        <v>0.9909068991254784</v>
+        <v>1.046943803623934</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040624665603715</v>
+        <v>1.033466641729468</v>
       </c>
       <c r="J13">
-        <v>1.00646466506629</v>
+        <v>1.038065422285362</v>
       </c>
       <c r="K13">
-        <v>1.002585177080677</v>
+        <v>1.038038375919771</v>
       </c>
       <c r="L13">
-        <v>1.007006782129676</v>
+        <v>1.043156882034173</v>
       </c>
       <c r="M13">
-        <v>1.006165779658826</v>
+        <v>1.05050571641615</v>
       </c>
       <c r="N13">
-        <v>1.007893960333795</v>
+        <v>1.039539594252776</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9767636056817934</v>
+        <v>1.031594923719023</v>
       </c>
       <c r="D14">
-        <v>0.9881872398990649</v>
+        <v>1.034605596736237</v>
       </c>
       <c r="E14">
-        <v>0.9926839433437089</v>
+        <v>1.039742949579308</v>
       </c>
       <c r="F14">
-        <v>0.991964277624378</v>
+        <v>1.047148197374006</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040938586485951</v>
+        <v>1.033501694403902</v>
       </c>
       <c r="J14">
-        <v>1.007173133752185</v>
+        <v>1.038194910166922</v>
       </c>
       <c r="K14">
-        <v>1.003352686088925</v>
+        <v>1.038181603857067</v>
       </c>
       <c r="L14">
-        <v>1.007762313268024</v>
+        <v>1.043299938094984</v>
       </c>
       <c r="M14">
-        <v>1.007056513983848</v>
+        <v>1.050678134285065</v>
       </c>
       <c r="N14">
-        <v>1.008603435126487</v>
+        <v>1.03966926602198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9774214074526363</v>
+        <v>1.031712545505114</v>
       </c>
       <c r="D15">
-        <v>0.9887595264940331</v>
+        <v>1.034713753884612</v>
       </c>
       <c r="E15">
-        <v>0.9932480366757788</v>
+        <v>1.039850890139605</v>
       </c>
       <c r="F15">
-        <v>0.9926131119151664</v>
+        <v>1.04727413774109</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041130747498958</v>
+        <v>1.03352323494899</v>
       </c>
       <c r="J15">
-        <v>1.007607630577627</v>
+        <v>1.038274666766518</v>
       </c>
       <c r="K15">
-        <v>1.003823455107065</v>
+        <v>1.038269831555892</v>
       </c>
       <c r="L15">
-        <v>1.008225775650328</v>
+        <v>1.04338806496281</v>
       </c>
       <c r="M15">
-        <v>1.007602980953346</v>
+        <v>1.050784359422255</v>
       </c>
       <c r="N15">
-        <v>1.009038548987258</v>
+        <v>1.039749135885095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9812061281289131</v>
+        <v>1.032396966602232</v>
       </c>
       <c r="D16">
-        <v>0.9920548185085424</v>
+        <v>1.035343198488974</v>
       </c>
       <c r="E16">
-        <v>0.996496884922459</v>
+        <v>1.040479152656704</v>
       </c>
       <c r="F16">
-        <v>0.9963501147040561</v>
+        <v>1.048007267040619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04223035911194</v>
+        <v>1.033647746458606</v>
       </c>
       <c r="J16">
-        <v>1.010106523663945</v>
+        <v>1.038738500848666</v>
       </c>
       <c r="K16">
-        <v>1.006531918413604</v>
+        <v>1.038783053520977</v>
       </c>
       <c r="L16">
-        <v>1.010892813892883</v>
+        <v>1.043900777455332</v>
       </c>
       <c r="M16">
-        <v>1.01074871059876</v>
+        <v>1.051402526192915</v>
       </c>
       <c r="N16">
-        <v>1.011540990788386</v>
+        <v>1.040213628664843</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9835426137085509</v>
+        <v>1.032826120798568</v>
       </c>
       <c r="D17">
-        <v>0.9940913610470717</v>
+        <v>1.035737965275437</v>
       </c>
       <c r="E17">
-        <v>0.9985053671565827</v>
+        <v>1.040873247138212</v>
       </c>
       <c r="F17">
-        <v>0.9986604952967183</v>
+        <v>1.048467230189275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042903861024752</v>
+        <v>1.033725088368804</v>
       </c>
       <c r="J17">
-        <v>1.011648253311887</v>
+        <v>1.039029114048861</v>
       </c>
       <c r="K17">
-        <v>1.008203789374692</v>
+        <v>1.039104719043395</v>
       </c>
       <c r="L17">
-        <v>1.012539653550259</v>
+        <v>1.044222191606372</v>
       </c>
       <c r="M17">
-        <v>1.012692051716315</v>
+        <v>1.051790190070824</v>
       </c>
       <c r="N17">
-        <v>1.013084909869267</v>
+        <v>1.040504654569115</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9848923481956355</v>
+        <v>1.033076380071585</v>
       </c>
       <c r="D18">
-        <v>0.9952685926931962</v>
+        <v>1.035968202009085</v>
       </c>
       <c r="E18">
-        <v>0.9996666093168248</v>
+        <v>1.041103116663925</v>
       </c>
       <c r="F18">
-        <v>0.9999963385913919</v>
+        <v>1.048735551815086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043290977035644</v>
+        <v>1.033769926348942</v>
       </c>
       <c r="J18">
-        <v>1.012538509964184</v>
+        <v>1.039198502264008</v>
       </c>
       <c r="K18">
-        <v>1.009169499251884</v>
+        <v>1.039292245724476</v>
       </c>
       <c r="L18">
-        <v>1.013491100000683</v>
+        <v>1.044409596259903</v>
       </c>
       <c r="M18">
-        <v>1.013815135236306</v>
+        <v>1.052016273552025</v>
       </c>
       <c r="N18">
-        <v>1.013976430788124</v>
+        <v>1.040674283334957</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9853503914639666</v>
+        <v>1.033161702026527</v>
       </c>
       <c r="D19">
-        <v>0.9956682235403066</v>
+        <v>1.036046702720289</v>
       </c>
       <c r="E19">
-        <v>1.000060851396877</v>
+        <v>1.041181496396535</v>
       </c>
       <c r="F19">
-        <v>1.000449867850046</v>
+        <v>1.048827048163282</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043422014378972</v>
+        <v>1.033785168420345</v>
       </c>
       <c r="J19">
-        <v>1.012840561706619</v>
+        <v>1.039256238664711</v>
       </c>
       <c r="K19">
-        <v>1.009497202938594</v>
+        <v>1.039356171312957</v>
       </c>
       <c r="L19">
-        <v>1.013813996759021</v>
+        <v>1.044473484412731</v>
       </c>
       <c r="M19">
-        <v>1.014196338743096</v>
+        <v>1.052093356380089</v>
       </c>
       <c r="N19">
-        <v>1.014278911478679</v>
+        <v>1.040732101727971</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9832932953897143</v>
+        <v>1.032780082737035</v>
       </c>
       <c r="D20">
-        <v>0.9938739683722186</v>
+        <v>1.035695613026663</v>
       </c>
       <c r="E20">
-        <v>0.9982909458324509</v>
+        <v>1.040830964442186</v>
       </c>
       <c r="F20">
-        <v>0.9984138387120529</v>
+        <v>1.048417877099333</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042832195832117</v>
+        <v>1.033716818679502</v>
       </c>
       <c r="J20">
-        <v>1.011483778109071</v>
+        <v>1.038997946578088</v>
       </c>
       <c r="K20">
-        <v>1.008025398812416</v>
+        <v>1.039070217245359</v>
       </c>
       <c r="L20">
-        <v>1.012363913614395</v>
+        <v>1.044187714234603</v>
       </c>
       <c r="M20">
-        <v>1.012484636311817</v>
+        <v>1.05174860095825</v>
       </c>
       <c r="N20">
-        <v>1.012920201092797</v>
+        <v>1.040473442836959</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9764484222029864</v>
+        <v>1.031538704130509</v>
       </c>
       <c r="D21">
-        <v>0.9879130779737237</v>
+        <v>1.034553902665801</v>
       </c>
       <c r="E21">
-        <v>0.9924137196307699</v>
+        <v>1.039691360412084</v>
       </c>
       <c r="F21">
-        <v>0.9916534608079284</v>
+        <v>1.047088007129042</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040846407070936</v>
+        <v>1.033491384048459</v>
       </c>
       <c r="J21">
-        <v>1.006964928650431</v>
+        <v>1.038156784454996</v>
       </c>
       <c r="K21">
-        <v>1.0031271169656</v>
+        <v>1.038139430916808</v>
       </c>
       <c r="L21">
-        <v>1.007540256012143</v>
+        <v>1.043257814712395</v>
       </c>
       <c r="M21">
-        <v>1.006794705267929</v>
+        <v>1.050627363021781</v>
       </c>
       <c r="N21">
-        <v>1.008394934349606</v>
+        <v>1.03963108616717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9720170177329279</v>
+        <v>1.030757659407213</v>
       </c>
       <c r="D22">
-        <v>0.9840616685481854</v>
+        <v>1.033835843923209</v>
       </c>
       <c r="E22">
-        <v>0.9886185134574519</v>
+        <v>1.038974850611133</v>
       </c>
       <c r="F22">
-        <v>0.9872881885412983</v>
+        <v>1.046252155379431</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039543360064483</v>
+        <v>1.033347174505263</v>
       </c>
       <c r="J22">
-        <v>1.004036511401288</v>
+        <v>1.037626814350042</v>
       </c>
       <c r="K22">
-        <v>0.9999556200280719</v>
+        <v>1.037553346192891</v>
       </c>
       <c r="L22">
-        <v>1.004418862616309</v>
+        <v>1.042672508860471</v>
       </c>
       <c r="M22">
-        <v>1.003115746163999</v>
+        <v>1.049922082331765</v>
       </c>
       <c r="N22">
-        <v>1.005462358412076</v>
+        <v>1.039100363443878</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9743787988989792</v>
+        <v>1.031171757647999</v>
       </c>
       <c r="D23">
-        <v>0.9861135794671028</v>
+        <v>1.034216521482721</v>
       </c>
       <c r="E23">
-        <v>0.9906402785191613</v>
+        <v>1.039354685758833</v>
       </c>
       <c r="F23">
-        <v>0.9896136283935184</v>
+        <v>1.046695228991362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040239445181377</v>
+        <v>1.033423856786612</v>
       </c>
       <c r="J23">
-        <v>1.005597500816946</v>
+        <v>1.037907865768087</v>
       </c>
       <c r="K23">
-        <v>1.001645919383683</v>
+        <v>1.037864122697908</v>
       </c>
       <c r="L23">
-        <v>1.00608229165031</v>
+        <v>1.042982851506013</v>
       </c>
       <c r="M23">
-        <v>1.005076032292591</v>
+        <v>1.050295994963216</v>
       </c>
       <c r="N23">
-        <v>1.007025564611752</v>
+        <v>1.039381813987174</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9834059919801015</v>
+        <v>1.032800885537581</v>
       </c>
       <c r="D24">
-        <v>0.993972231593364</v>
+        <v>1.035714750258905</v>
       </c>
       <c r="E24">
-        <v>0.9983878652632793</v>
+        <v>1.040850070169494</v>
       </c>
       <c r="F24">
-        <v>0.9985253284630591</v>
+        <v>1.048440177534284</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042864595912899</v>
+        <v>1.033720556243429</v>
       </c>
       <c r="J24">
-        <v>1.011558125147326</v>
+        <v>1.03901203019186</v>
       </c>
       <c r="K24">
-        <v>1.008106035007556</v>
+        <v>1.039085807417222</v>
       </c>
       <c r="L24">
-        <v>1.012443351065993</v>
+        <v>1.044203293293301</v>
       </c>
       <c r="M24">
-        <v>1.01257839057206</v>
+        <v>1.051767393393714</v>
       </c>
       <c r="N24">
-        <v>1.012994653712373</v>
+        <v>1.040487546451078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9933716903308206</v>
+        <v>1.03468908306846</v>
       </c>
       <c r="D25">
-        <v>1.00267712386808</v>
+        <v>1.037452419309767</v>
       </c>
       <c r="E25">
-        <v>1.006978606809285</v>
+        <v>1.042585416729144</v>
       </c>
       <c r="F25">
-        <v>1.008409015123616</v>
+        <v>1.050466386879072</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045687492255789</v>
+        <v>1.034054100648774</v>
       </c>
       <c r="J25">
-        <v>1.018124201274311</v>
+        <v>1.040288584849325</v>
       </c>
       <c r="K25">
-        <v>1.015234022605844</v>
+        <v>1.040499764548423</v>
       </c>
       <c r="L25">
-        <v>1.01946954629564</v>
+        <v>1.045616772962991</v>
       </c>
       <c r="M25">
-        <v>1.020878179539362</v>
+        <v>1.053473526170743</v>
       </c>
       <c r="N25">
-        <v>1.019570054420599</v>
+        <v>1.04176591396258</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03619328014384</v>
+        <v>1.000954352687938</v>
       </c>
       <c r="D2">
-        <v>1.038837636877475</v>
+        <v>1.009321184162793</v>
       </c>
       <c r="E2">
-        <v>1.043969571154188</v>
+        <v>1.013542594949536</v>
       </c>
       <c r="F2">
-        <v>1.052083561064594</v>
+        <v>1.015963812404377</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034311452478081</v>
+        <v>1.047772353480579</v>
       </c>
       <c r="J2">
-        <v>1.041302932441949</v>
+        <v>1.023106556650641</v>
       </c>
       <c r="K2">
-        <v>1.041624532558426</v>
+        <v>1.020652169711221</v>
       </c>
       <c r="L2">
-        <v>1.046741939805645</v>
+        <v>1.024816429727653</v>
       </c>
       <c r="M2">
-        <v>1.054833274861561</v>
+        <v>1.027205137241534</v>
       </c>
       <c r="N2">
-        <v>1.042781702045133</v>
+        <v>1.024559485313048</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037284424865084</v>
+        <v>1.006267600078618</v>
       </c>
       <c r="D3">
-        <v>1.039843006486156</v>
+        <v>1.013987561665027</v>
       </c>
       <c r="E3">
-        <v>1.044974626868057</v>
+        <v>1.018156805464514</v>
       </c>
       <c r="F3">
-        <v>1.053258413668583</v>
+        <v>1.021276733147373</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034493273632572</v>
+        <v>1.049195401061665</v>
       </c>
       <c r="J3">
-        <v>1.042037225991341</v>
+        <v>1.026588850109257</v>
       </c>
       <c r="K3">
-        <v>1.042439482123166</v>
+        <v>1.024444543421573</v>
       </c>
       <c r="L3">
-        <v>1.047557631996732</v>
+        <v>1.028562520229402</v>
       </c>
       <c r="M3">
-        <v>1.055819972693901</v>
+        <v>1.031644424024511</v>
       </c>
       <c r="N3">
-        <v>1.043517038375589</v>
+        <v>1.028046724027799</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037989996381771</v>
+        <v>1.00962246978765</v>
       </c>
       <c r="D4">
-        <v>1.0404933559343</v>
+        <v>1.016938646844346</v>
       </c>
       <c r="E4">
-        <v>1.045624985271439</v>
+        <v>1.021076783757087</v>
       </c>
       <c r="F4">
-        <v>1.054018923919444</v>
+        <v>1.024640059876751</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03460859094797</v>
+        <v>1.050075974120409</v>
       </c>
       <c r="J4">
-        <v>1.042511341561719</v>
+        <v>1.028783194024847</v>
       </c>
       <c r="K4">
-        <v>1.042966010253636</v>
+        <v>1.026836846985012</v>
       </c>
       <c r="L4">
-        <v>1.04808485059762</v>
+        <v>1.030927315356486</v>
       </c>
       <c r="M4">
-        <v>1.05645815869345</v>
+        <v>1.034449925434445</v>
       </c>
       <c r="N4">
-        <v>1.043991827244459</v>
+        <v>1.030244184163444</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038286506344037</v>
+        <v>1.01101376162734</v>
       </c>
       <c r="D5">
-        <v>1.040766717015726</v>
+        <v>1.018163556124075</v>
       </c>
       <c r="E5">
-        <v>1.045898400910227</v>
+        <v>1.022289234110745</v>
       </c>
       <c r="F5">
-        <v>1.054338715205929</v>
+        <v>1.026036908597336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034656511468768</v>
+        <v>1.050436776562192</v>
       </c>
       <c r="J5">
-        <v>1.042710415314785</v>
+        <v>1.029692097068667</v>
       </c>
       <c r="K5">
-        <v>1.043187171570005</v>
+        <v>1.027828364925434</v>
       </c>
       <c r="L5">
-        <v>1.048306352499645</v>
+        <v>1.031907841035991</v>
       </c>
       <c r="M5">
-        <v>1.056726386937613</v>
+        <v>1.035613942680962</v>
       </c>
       <c r="N5">
-        <v>1.044191183705088</v>
+        <v>1.031154377953839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038336285106453</v>
+        <v>1.011246268589517</v>
       </c>
       <c r="D6">
-        <v>1.040812612860083</v>
+        <v>1.018368319496978</v>
       </c>
       <c r="E6">
-        <v>1.045944308894222</v>
+        <v>1.022491941404004</v>
       </c>
       <c r="F6">
-        <v>1.054392413851098</v>
+        <v>1.026270463918945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034664524752554</v>
+        <v>1.050496812957281</v>
       </c>
       <c r="J6">
-        <v>1.042743826343109</v>
+        <v>1.029843922670297</v>
       </c>
       <c r="K6">
-        <v>1.043224294324352</v>
+        <v>1.02799402729792</v>
       </c>
       <c r="L6">
-        <v>1.048343535391664</v>
+        <v>1.032071690990609</v>
       </c>
       <c r="M6">
-        <v>1.05677141982879</v>
+        <v>1.035808499879141</v>
       </c>
       <c r="N6">
-        <v>1.044224642180905</v>
+        <v>1.031306419165237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037993958802805</v>
+        <v>1.009641134290117</v>
       </c>
       <c r="D7">
-        <v>1.040497008778395</v>
+        <v>1.016955075116515</v>
       </c>
       <c r="E7">
-        <v>1.04562863864492</v>
+        <v>1.021093043142509</v>
       </c>
       <c r="F7">
-        <v>1.054023196699742</v>
+        <v>1.024658790859057</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034609233460756</v>
+        <v>1.050080831769237</v>
       </c>
       <c r="J7">
-        <v>1.042514002555302</v>
+        <v>1.028795391615014</v>
       </c>
       <c r="K7">
-        <v>1.042968966172794</v>
+        <v>1.026850150821045</v>
       </c>
       <c r="L7">
-        <v>1.048087810869941</v>
+        <v>1.030940470079775</v>
       </c>
       <c r="M7">
-        <v>1.056461743027995</v>
+        <v>1.034465538858827</v>
       </c>
       <c r="N7">
-        <v>1.043994492016958</v>
+        <v>1.030256399075588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036562135791543</v>
+        <v>1.00276771292599</v>
       </c>
       <c r="D8">
-        <v>1.039177446056582</v>
+        <v>1.010912764153229</v>
       </c>
       <c r="E8">
-        <v>1.044309230355009</v>
+        <v>1.015115986637009</v>
       </c>
       <c r="F8">
-        <v>1.052480545742606</v>
+        <v>1.017775221207541</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034373382688175</v>
+        <v>1.048261760201026</v>
       </c>
       <c r="J8">
-        <v>1.041551301952056</v>
+        <v>1.0242959332177</v>
       </c>
       <c r="K8">
-        <v>1.04190011403132</v>
+        <v>1.021946916579117</v>
       </c>
       <c r="L8">
-        <v>1.047017728813251</v>
+        <v>1.026095022372546</v>
       </c>
       <c r="M8">
-        <v>1.055166790835235</v>
+        <v>1.028719680802344</v>
       </c>
       <c r="N8">
-        <v>1.043030424268432</v>
+        <v>1.025750550931255</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034035432141881</v>
+        <v>0.989979732349024</v>
       </c>
       <c r="D9">
-        <v>1.036850731583285</v>
+        <v>0.9997108438028482</v>
       </c>
       <c r="E9">
-        <v>1.041984411242319</v>
+        <v>1.004050105970555</v>
       </c>
       <c r="F9">
-        <v>1.049764489230544</v>
+        <v>1.005039379954781</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03393992791603</v>
+        <v>1.044736477527094</v>
       </c>
       <c r="J9">
-        <v>1.039847071484809</v>
+        <v>1.015891362687464</v>
       </c>
       <c r="K9">
-        <v>1.04001053666039</v>
+        <v>1.012808614107231</v>
       </c>
       <c r="L9">
-        <v>1.045127589892894</v>
+        <v>1.017077813027211</v>
       </c>
       <c r="M9">
-        <v>1.052882809711441</v>
+        <v>1.018051222443976</v>
       </c>
       <c r="N9">
-        <v>1.041323773598444</v>
+        <v>1.017334044946848</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032348460023266</v>
+        <v>0.9809402791137797</v>
       </c>
       <c r="D10">
-        <v>1.035298582777509</v>
+        <v>0.9918232041388773</v>
       </c>
       <c r="E10">
-        <v>1.040434616296027</v>
+        <v>0.9962684933670154</v>
       </c>
       <c r="F10">
-        <v>1.047955291210362</v>
+        <v>0.9960873996032875</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033638968974135</v>
+        <v>1.042153462725036</v>
       </c>
       <c r="J10">
-        <v>1.038705642304311</v>
+        <v>1.009931054919408</v>
       </c>
       <c r="K10">
-        <v>1.038746689306265</v>
+        <v>1.006341679433676</v>
       </c>
       <c r="L10">
-        <v>1.043864444974722</v>
+        <v>1.010705449755869</v>
       </c>
       <c r="M10">
-        <v>1.051358711787146</v>
+        <v>1.010527658433711</v>
       </c>
       <c r="N10">
-        <v>1.040180723457586</v>
+        <v>1.011365272858105</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031617376508227</v>
+        <v>0.976889342396454</v>
       </c>
       <c r="D11">
-        <v>1.034626242448789</v>
+        <v>0.9882966203530151</v>
       </c>
       <c r="E11">
-        <v>1.039763553645304</v>
+        <v>0.9927917549627138</v>
       </c>
       <c r="F11">
-        <v>1.047172236920136</v>
+        <v>0.9920882849640577</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033505809475482</v>
+        <v>1.040975340669063</v>
       </c>
       <c r="J11">
-        <v>1.03821013586956</v>
+        <v>1.007256190263493</v>
       </c>
       <c r="K11">
-        <v>1.038198446234347</v>
+        <v>1.003442672489098</v>
       </c>
       <c r="L11">
-        <v>1.043316760926306</v>
+        <v>1.007850900640627</v>
       </c>
       <c r="M11">
-        <v>1.05069841133536</v>
+        <v>1.007160963067423</v>
       </c>
       <c r="N11">
-        <v>1.039684513346862</v>
+        <v>1.008686609587568</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031345726183878</v>
+        <v>0.975362697687669</v>
       </c>
       <c r="D12">
-        <v>1.034376467312337</v>
+        <v>0.9869688963229334</v>
       </c>
       <c r="E12">
-        <v>1.039514291916965</v>
+        <v>0.9914831652148149</v>
       </c>
       <c r="F12">
-        <v>1.046881425941313</v>
+        <v>0.9905831234740602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033455921211334</v>
+        <v>1.040528353864865</v>
       </c>
       <c r="J12">
-        <v>1.038025892962242</v>
+        <v>1.006247632756263</v>
       </c>
       <c r="K12">
-        <v>1.037994655327529</v>
+        <v>1.002350083729215</v>
       </c>
       <c r="L12">
-        <v>1.043113215918548</v>
+        <v>1.006775373791394</v>
       </c>
       <c r="M12">
-        <v>1.050453092155521</v>
+        <v>1.005892987426837</v>
       </c>
       <c r="N12">
-        <v>1.039500008793483</v>
+        <v>1.007676619812993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03140400034436</v>
+        <v>0.9756911850625537</v>
       </c>
       <c r="D13">
-        <v>1.034430046654759</v>
+        <v>0.9872545213896213</v>
       </c>
       <c r="E13">
-        <v>1.039567759374928</v>
+        <v>0.9917646573952718</v>
       </c>
       <c r="F13">
-        <v>1.046943803623934</v>
+        <v>0.9909068991254772</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033466641729468</v>
+        <v>1.040624665603714</v>
       </c>
       <c r="J13">
-        <v>1.038065422285362</v>
+        <v>1.006464665066289</v>
       </c>
       <c r="K13">
-        <v>1.038038375919771</v>
+        <v>1.002585177080676</v>
       </c>
       <c r="L13">
-        <v>1.043156882034173</v>
+        <v>1.007006782129675</v>
       </c>
       <c r="M13">
-        <v>1.05050571641615</v>
+        <v>1.006165779658825</v>
       </c>
       <c r="N13">
-        <v>1.039539594252776</v>
+        <v>1.007893960333794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031594923719023</v>
+        <v>0.9767636056817929</v>
       </c>
       <c r="D14">
-        <v>1.034605596736237</v>
+        <v>0.9881872398990645</v>
       </c>
       <c r="E14">
-        <v>1.039742949579308</v>
+        <v>0.9926839433437082</v>
       </c>
       <c r="F14">
-        <v>1.047148197374006</v>
+        <v>0.9919642776243773</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033501694403902</v>
+        <v>1.040938586485951</v>
       </c>
       <c r="J14">
-        <v>1.038194910166922</v>
+        <v>1.007173133752185</v>
       </c>
       <c r="K14">
-        <v>1.038181603857067</v>
+        <v>1.003352686088925</v>
       </c>
       <c r="L14">
-        <v>1.043299938094984</v>
+        <v>1.007762313268024</v>
       </c>
       <c r="M14">
-        <v>1.050678134285065</v>
+        <v>1.007056513983847</v>
       </c>
       <c r="N14">
-        <v>1.03966926602198</v>
+        <v>1.008603435126486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031712545505114</v>
+        <v>0.9774214074526359</v>
       </c>
       <c r="D15">
-        <v>1.034713753884612</v>
+        <v>0.9887595264940328</v>
       </c>
       <c r="E15">
-        <v>1.039850890139605</v>
+        <v>0.9932480366757784</v>
       </c>
       <c r="F15">
-        <v>1.04727413774109</v>
+        <v>0.9926131119151659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03352323494899</v>
+        <v>1.041130747498957</v>
       </c>
       <c r="J15">
-        <v>1.038274666766518</v>
+        <v>1.007607630577627</v>
       </c>
       <c r="K15">
-        <v>1.038269831555892</v>
+        <v>1.003823455107065</v>
       </c>
       <c r="L15">
-        <v>1.04338806496281</v>
+        <v>1.008225775650327</v>
       </c>
       <c r="M15">
-        <v>1.050784359422255</v>
+        <v>1.007602980953346</v>
       </c>
       <c r="N15">
-        <v>1.039749135885095</v>
+        <v>1.009038548987258</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032396966602232</v>
+        <v>0.9812061281289122</v>
       </c>
       <c r="D16">
-        <v>1.035343198488974</v>
+        <v>0.9920548185085413</v>
       </c>
       <c r="E16">
-        <v>1.040479152656704</v>
+        <v>0.9964968849224579</v>
       </c>
       <c r="F16">
-        <v>1.048007267040619</v>
+        <v>0.9963501147040552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033647746458606</v>
+        <v>1.042230359111939</v>
       </c>
       <c r="J16">
-        <v>1.038738500848666</v>
+        <v>1.010106523663944</v>
       </c>
       <c r="K16">
-        <v>1.038783053520977</v>
+        <v>1.006531918413603</v>
       </c>
       <c r="L16">
-        <v>1.043900777455332</v>
+        <v>1.010892813892882</v>
       </c>
       <c r="M16">
-        <v>1.051402526192915</v>
+        <v>1.01074871059876</v>
       </c>
       <c r="N16">
-        <v>1.040213628664843</v>
+        <v>1.011540990788385</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032826120798568</v>
+        <v>0.9835426137085508</v>
       </c>
       <c r="D17">
-        <v>1.035737965275437</v>
+        <v>0.9940913610470714</v>
       </c>
       <c r="E17">
-        <v>1.040873247138212</v>
+        <v>0.9985053671565826</v>
       </c>
       <c r="F17">
-        <v>1.048467230189275</v>
+        <v>0.9986604952967184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033725088368804</v>
+        <v>1.042903861024752</v>
       </c>
       <c r="J17">
-        <v>1.039029114048861</v>
+        <v>1.011648253311887</v>
       </c>
       <c r="K17">
-        <v>1.039104719043395</v>
+        <v>1.008203789374691</v>
       </c>
       <c r="L17">
-        <v>1.044222191606372</v>
+        <v>1.01253965355026</v>
       </c>
       <c r="M17">
-        <v>1.051790190070824</v>
+        <v>1.012692051716315</v>
       </c>
       <c r="N17">
-        <v>1.040504654569115</v>
+        <v>1.013084909869266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033076380071585</v>
+        <v>0.9848923481956358</v>
       </c>
       <c r="D18">
-        <v>1.035968202009085</v>
+        <v>0.9952685926931965</v>
       </c>
       <c r="E18">
-        <v>1.041103116663925</v>
+        <v>0.9996666093168253</v>
       </c>
       <c r="F18">
-        <v>1.048735551815086</v>
+        <v>0.9999963385913919</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033769926348942</v>
+        <v>1.043290977035644</v>
       </c>
       <c r="J18">
-        <v>1.039198502264008</v>
+        <v>1.012538509964184</v>
       </c>
       <c r="K18">
-        <v>1.039292245724476</v>
+        <v>1.009169499251884</v>
       </c>
       <c r="L18">
-        <v>1.044409596259903</v>
+        <v>1.013491100000683</v>
       </c>
       <c r="M18">
-        <v>1.052016273552025</v>
+        <v>1.013815135236306</v>
       </c>
       <c r="N18">
-        <v>1.040674283334957</v>
+        <v>1.013976430788124</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033161702026527</v>
+        <v>0.9853503914639657</v>
       </c>
       <c r="D19">
-        <v>1.036046702720289</v>
+        <v>0.995668223540306</v>
       </c>
       <c r="E19">
-        <v>1.041181496396535</v>
+        <v>1.000060851396877</v>
       </c>
       <c r="F19">
-        <v>1.048827048163282</v>
+        <v>1.000449867850045</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033785168420345</v>
+        <v>1.043422014378972</v>
       </c>
       <c r="J19">
-        <v>1.039256238664711</v>
+        <v>1.012840561706619</v>
       </c>
       <c r="K19">
-        <v>1.039356171312957</v>
+        <v>1.009497202938593</v>
       </c>
       <c r="L19">
-        <v>1.044473484412731</v>
+        <v>1.01381399675902</v>
       </c>
       <c r="M19">
-        <v>1.052093356380089</v>
+        <v>1.014196338743095</v>
       </c>
       <c r="N19">
-        <v>1.040732101727971</v>
+        <v>1.014278911478678</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032780082737035</v>
+        <v>0.9832932953897137</v>
       </c>
       <c r="D20">
-        <v>1.035695613026663</v>
+        <v>0.9938739683722181</v>
       </c>
       <c r="E20">
-        <v>1.040830964442186</v>
+        <v>0.9982909458324505</v>
       </c>
       <c r="F20">
-        <v>1.048417877099333</v>
+        <v>0.9984138387120524</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033716818679502</v>
+        <v>1.042832195832117</v>
       </c>
       <c r="J20">
-        <v>1.038997946578088</v>
+        <v>1.01148377810907</v>
       </c>
       <c r="K20">
-        <v>1.039070217245359</v>
+        <v>1.008025398812415</v>
       </c>
       <c r="L20">
-        <v>1.044187714234603</v>
+        <v>1.012363913614395</v>
       </c>
       <c r="M20">
-        <v>1.05174860095825</v>
+        <v>1.012484636311816</v>
       </c>
       <c r="N20">
-        <v>1.040473442836959</v>
+        <v>1.012920201092797</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031538704130509</v>
+        <v>0.976448422202986</v>
       </c>
       <c r="D21">
-        <v>1.034553902665801</v>
+        <v>0.9879130779737234</v>
       </c>
       <c r="E21">
-        <v>1.039691360412084</v>
+        <v>0.9924137196307694</v>
       </c>
       <c r="F21">
-        <v>1.047088007129042</v>
+        <v>0.9916534608079278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033491384048459</v>
+        <v>1.040846407070936</v>
       </c>
       <c r="J21">
-        <v>1.038156784454996</v>
+        <v>1.006964928650431</v>
       </c>
       <c r="K21">
-        <v>1.038139430916808</v>
+        <v>1.003127116965599</v>
       </c>
       <c r="L21">
-        <v>1.043257814712395</v>
+        <v>1.007540256012142</v>
       </c>
       <c r="M21">
-        <v>1.050627363021781</v>
+        <v>1.006794705267928</v>
       </c>
       <c r="N21">
-        <v>1.03963108616717</v>
+        <v>1.008394934349606</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030757659407213</v>
+        <v>0.9720170177329275</v>
       </c>
       <c r="D22">
-        <v>1.033835843923209</v>
+        <v>0.9840616685481844</v>
       </c>
       <c r="E22">
-        <v>1.038974850611133</v>
+        <v>0.988618513457451</v>
       </c>
       <c r="F22">
-        <v>1.046252155379431</v>
+        <v>0.9872881885412976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033347174505263</v>
+        <v>1.039543360064483</v>
       </c>
       <c r="J22">
-        <v>1.037626814350042</v>
+        <v>1.004036511401287</v>
       </c>
       <c r="K22">
-        <v>1.037553346192891</v>
+        <v>0.9999556200280709</v>
       </c>
       <c r="L22">
-        <v>1.042672508860471</v>
+        <v>1.004418862616309</v>
       </c>
       <c r="M22">
-        <v>1.049922082331765</v>
+        <v>1.003115746163999</v>
       </c>
       <c r="N22">
-        <v>1.039100363443878</v>
+        <v>1.005462358412075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031171757647999</v>
+        <v>0.9743787988989787</v>
       </c>
       <c r="D23">
-        <v>1.034216521482721</v>
+        <v>0.9861135794671023</v>
       </c>
       <c r="E23">
-        <v>1.039354685758833</v>
+        <v>0.9906402785191609</v>
       </c>
       <c r="F23">
-        <v>1.046695228991362</v>
+        <v>0.9896136283935181</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033423856786612</v>
+        <v>1.040239445181377</v>
       </c>
       <c r="J23">
-        <v>1.037907865768087</v>
+        <v>1.005597500816946</v>
       </c>
       <c r="K23">
-        <v>1.037864122697908</v>
+        <v>1.001645919383683</v>
       </c>
       <c r="L23">
-        <v>1.042982851506013</v>
+        <v>1.00608229165031</v>
       </c>
       <c r="M23">
-        <v>1.050295994963216</v>
+        <v>1.005076032292591</v>
       </c>
       <c r="N23">
-        <v>1.039381813987174</v>
+        <v>1.007025564611751</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032800885537581</v>
+        <v>0.9834059919801011</v>
       </c>
       <c r="D24">
-        <v>1.035714750258905</v>
+        <v>0.9939722315933639</v>
       </c>
       <c r="E24">
-        <v>1.040850070169494</v>
+        <v>0.9983878652632786</v>
       </c>
       <c r="F24">
-        <v>1.048440177534284</v>
+        <v>0.9985253284630584</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033720556243429</v>
+        <v>1.042864595912899</v>
       </c>
       <c r="J24">
-        <v>1.03901203019186</v>
+        <v>1.011558125147326</v>
       </c>
       <c r="K24">
-        <v>1.039085807417222</v>
+        <v>1.008106035007556</v>
       </c>
       <c r="L24">
-        <v>1.044203293293301</v>
+        <v>1.012443351065992</v>
       </c>
       <c r="M24">
-        <v>1.051767393393714</v>
+        <v>1.012578390572059</v>
       </c>
       <c r="N24">
-        <v>1.040487546451078</v>
+        <v>1.012994653712373</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03468908306846</v>
+        <v>0.9933716903308201</v>
       </c>
       <c r="D25">
-        <v>1.037452419309767</v>
+        <v>1.002677123868079</v>
       </c>
       <c r="E25">
-        <v>1.042585416729144</v>
+        <v>1.006978606809285</v>
       </c>
       <c r="F25">
-        <v>1.050466386879072</v>
+        <v>1.008409015123616</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034054100648774</v>
+        <v>1.045687492255789</v>
       </c>
       <c r="J25">
-        <v>1.040288584849325</v>
+        <v>1.01812420127431</v>
       </c>
       <c r="K25">
-        <v>1.040499764548423</v>
+        <v>1.015234022605843</v>
       </c>
       <c r="L25">
-        <v>1.045616772962991</v>
+        <v>1.01946954629564</v>
       </c>
       <c r="M25">
-        <v>1.053473526170743</v>
+        <v>1.020878179539361</v>
       </c>
       <c r="N25">
-        <v>1.04176591396258</v>
+        <v>1.019570054420598</v>
       </c>
     </row>
   </sheetData>
